--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45747.3339440023</v>
+        <v>45747.38733286402</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45747.33394400774</v>
+        <v>45747.38733286849</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45747.33394406056</v>
+        <v>45747.38733291808</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45747.33394423627</v>
+        <v>45747.3873330791</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45747.33394438691</v>
+        <v>45747.38733321663</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45747.33394439017</v>
+        <v>45747.38733321953</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45747.33394439454</v>
+        <v>45747.38733322365</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45747.33394439718</v>
+        <v>45747.38733322614</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="K10" s="2" t="n">
-        <v>45747.33394439975</v>
+        <v>45747.38733322867</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="K11" s="2" t="n">
-        <v>45747.33394440351</v>
+        <v>45747.38733323215</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="K12" s="2" t="n">
-        <v>45747.33394440553</v>
+        <v>45747.38733323407</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="K13" s="2" t="n">
-        <v>45747.33394440744</v>
+        <v>45747.38733323587</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="K14" s="2" t="n">
-        <v>45747.33394440843</v>
+        <v>45747.38733323682</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="K15" s="2" t="n">
-        <v>45747.33394446501</v>
+        <v>45747.38733329016</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         </is>
       </c>
       <c r="K16" s="2" t="n">
-        <v>45747.33394450586</v>
+        <v>45747.38733332916</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="K17" s="2" t="n">
-        <v>45747.3339445661</v>
+        <v>45747.38733338856</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="K18" s="2" t="n">
-        <v>45747.33394462728</v>
+        <v>45747.38733344853</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         </is>
       </c>
       <c r="K19" s="2" t="n">
-        <v>45747.33394463933</v>
+        <v>45747.38733345988</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="K20" s="2" t="n">
-        <v>45747.33394464828</v>
+        <v>45747.38733346832</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="K21" s="2" t="n">
-        <v>45747.33394465277</v>
+        <v>45747.38733347291</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>45747.33394466174</v>
+        <v>45747.38733348141</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         </is>
       </c>
       <c r="K23" s="2" t="n">
-        <v>45747.33394467052</v>
+        <v>45747.38733349027</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
